--- a/mbs-perturbation/bloated/elm/nearmiss/bloated_elm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/bloated/elm/nearmiss/bloated_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5714285714285713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7781065088757396</v>
+        <v>0.7392857142857142</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8988095238095237</v>
+        <v>0.9769230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.761904761904762</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8809523809523808</v>
+        <v>0.9126984126984127</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8125000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8441558441558441</v>
+        <v>0.8615384615384616</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8288888888888888</v>
+        <v>0.8362193362193363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8100732600732601</v>
+        <v>0.7587393162393162</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8089743501265241</v>
+        <v>0.7931746031746031</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8765586977125437</v>
+        <v>0.8695177045177045</v>
       </c>
     </row>
   </sheetData>
